--- a/method_compare/Hasil.xlsx
+++ b/method_compare/Hasil.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PASCA\Thesis-kerja\simulation\sumo\method_compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DA40E2-D5B2-4019-99A8-33E658B9625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB555F2-4533-4670-BBAB-4312A0E6052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6780BFF1-D948-40FE-A3D7-7B914E941A97}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6780BFF1-D948-40FE-A3D7-7B914E941A97}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
     <sheet name="Lembar2" sheetId="2" r:id="rId2"/>
+    <sheet name="Lembar3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>Algorithm</t>
   </si>
@@ -202,6 +203,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,12 +227,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +242,8638 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Number of Routes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MILP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C03-4B1E-8BF9-FF70B6D5E930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clarke-Wright </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C03-4B1E-8BF9-FF70B6D5E930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$11:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C03-4B1E-8BF9-FF70B6D5E930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1673653471"/>
+        <c:axId val="1673653887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1673653471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Customer Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673653887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Distance Traveled (km)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MILP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$22:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D69-4C7B-B3BA-80E097E40C26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clarke-Wright </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4875109361329812E-2"/>
+                  <c:y val="-0.10413203557888598"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0E39-4A24-A298-DB31E78AF9C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4875109361329888E-2"/>
+                  <c:y val="-9.0243146689997084E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0E39-4A24-A298-DB31E78AF9C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4875109361329832E-2"/>
+                  <c:y val="-7.6354257801108188E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0E39-4A24-A298-DB31E78AF9C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1208442694663266E-2"/>
+                  <c:y val="-7.6354257801108188E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0E39-4A24-A298-DB31E78AF9C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$26:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.441000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112.65300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D69-4C7B-B3BA-80E097E40C26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3486220472440921E-2"/>
+                  <c:y val="-0.14811351706036746"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0E39-4A24-A298-DB31E78AF9C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3486220472440997E-2"/>
+                  <c:y val="-0.11570610965296005"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0E39-4A24-A298-DB31E78AF9C8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$30:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.22300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D69-4C7B-B3BA-80E097E40C26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1673653471"/>
+        <c:axId val="1673653887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1673653471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Customer Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673653887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Computing Time (second)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MILP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$39:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.168755054473799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.070279836654599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.096875667572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.098376035690301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BC4-43B6-8021-00BCD74415A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clarke-Wright </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$43:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.39999389648437E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3001670837402299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7002086639404297E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.60068988800048E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BC4-43B6-8021-00BCD74415A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2097331583552106E-2"/>
+                  <c:y val="-3.4687591134441531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B3BB-4929-8C13-153960CF0AF1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$47:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>40.053912878036499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.320352792739797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.776822090148901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.256520271301198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BC4-43B6-8021-00BCD74415A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1673653471"/>
+        <c:axId val="1673653887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1673653471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Customer Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673653887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Max. Simulation Time (second)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MILP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1967633048209623E-2"/>
+                  <c:y val="-6.7171666114977352E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-27F0-4D00-B1FB-B846CBF11A11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$56:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FBF-4ECE-AFDF-9A19B4B9FA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clarke-Wright </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1967633048209623E-2"/>
+                  <c:y val="-8.5711345225247981E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-27F0-4D00-B1FB-B846CBF11A11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1967633048209623E-2"/>
+                  <c:y val="-6.7171666114977435E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-27F0-4D00-B1FB-B846CBF11A11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$60:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FBF-4ECE-AFDF-9A19B4B9FA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1967633048209623E-2"/>
+                  <c:y val="-7.6441505670112736E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-27F0-4D00-B1FB-B846CBF11A11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1FBF-4ECE-AFDF-9A19B4B9FA3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1673653471"/>
+        <c:axId val="1673653887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1673653471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Customer Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673653887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Simulation Time (second)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MILP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4740346318437168E-2"/>
+                  <c:y val="-7.6441533567780065E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FA5C-420A-8D31-8002F2D16C42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4740346318437168E-2"/>
+                  <c:y val="-5.326692622226898E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FA5C-420A-8D31-8002F2D16C42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$74:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1046.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1171.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1694.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1829.2222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69CD-4983-859D-5805DDB9F083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clarke-Wright </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7513059588664713E-2"/>
+                  <c:y val="-0.10888598385149566"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-FA5C-420A-8D31-8002F2D16C42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4740346318437168E-2"/>
+                  <c:y val="-0.10888598385149566"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FA5C-420A-8D31-8002F2D16C42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$78:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1328.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1398.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1812.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69CD-4983-859D-5805DDB9F083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7513059588664713E-2"/>
+                  <c:y val="-7.6441533567780065E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FA5C-420A-8D31-8002F2D16C42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$82:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1284.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1627.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3138.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69CD-4983-859D-5805DDB9F083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1673653471"/>
+        <c:axId val="1673653887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1673653471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Customer Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673653887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Simulation Time (second)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MILP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4740346318437168E-2"/>
+                  <c:y val="-7.6441533567780065E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-044A-45AA-BEFB-B512ED6ED1D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4740346318437168E-2"/>
+                  <c:y val="-5.326692622226898E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-044A-45AA-BEFB-B512ED6ED1D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$74:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1046.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1171.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1694.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1829.2222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-044A-45AA-BEFB-B512ED6ED1D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clarke-Wright </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7513059588664713E-2"/>
+                  <c:y val="-0.10888598385149566"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-044A-45AA-BEFB-B512ED6ED1D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4740346318437168E-2"/>
+                  <c:y val="-0.10888598385149566"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-044A-45AA-BEFB-B512ED6ED1D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$78:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1328.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1398.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1812.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-044A-45AA-BEFB-B512ED6ED1D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lembar3!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7513059588664713E-2"/>
+                  <c:y val="-7.6441533567780065E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-044A-45AA-BEFB-B512ED6ED1D5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lembar3!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lembar3!$E$82:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1284.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1627.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3138.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-044A-45AA-BEFB-B512ED6ED1D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1673653471"/>
+        <c:axId val="1673653887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1673653471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Customer Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673653887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673653471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Bagan 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156E2A6A-3510-4A3A-90C6-43763EEF4812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Bagan 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C9144A-AB5C-481B-B0C8-EBB22669FC53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Bagan 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E921B62-4417-4C37-B97B-8C2D5C40EA01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Bagan 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16C0F70-A41C-42C0-A94A-CB6B62EE08A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Bagan 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE54A599-223C-4FBE-9D6A-77A72A4F342D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601579</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296779</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Bagan 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94826D5D-99D6-42AB-8B7C-F3ED7FAD7554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,8 +9175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218FAEDD-0B04-44C8-A446-2548711D1830}">
   <dimension ref="C3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +9218,7 @@
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -612,7 +9245,7 @@
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1">
         <v>25</v>
       </c>
@@ -637,7 +9270,7 @@
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="1">
         <v>35</v>
       </c>
@@ -662,7 +9295,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="16"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1">
         <v>50</v>
       </c>
@@ -687,7 +9320,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1">
@@ -696,7 +9329,7 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <v>22.441000000000003</v>
       </c>
       <c r="G8" s="3">
@@ -714,20 +9347,20 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="18"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1">
         <v>25</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="17">
         <v>39.045000000000002</v>
       </c>
       <c r="G9" s="3">
         <v>2.3001670837402299E-2</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="16">
         <v>1572</v>
       </c>
       <c r="I9" s="6">
@@ -739,20 +9372,20 @@
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="18"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1">
         <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="17">
         <v>69.100999999999999</v>
       </c>
       <c r="G10" s="3">
         <v>3.7002086639404297E-2</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="16">
         <v>3165</v>
       </c>
       <c r="I10" s="6">
@@ -764,20 +9397,20 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="19"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="1">
         <v>50</v>
       </c>
       <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="17">
         <v>112.65300000000001</v>
       </c>
       <c r="G11" s="3">
         <v>6.60068988800048E-2</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="16">
         <v>3086</v>
       </c>
       <c r="I11" s="6">
@@ -789,7 +9422,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1">
@@ -816,7 +9449,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1">
         <v>25</v>
       </c>
@@ -841,7 +9474,7 @@
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="18"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1">
         <v>35</v>
       </c>
@@ -866,7 +9499,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="19"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1">
         <v>50</v>
       </c>
@@ -896,7 +9529,7 @@
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="20"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="7">
         <v>3985</v>
       </c>
@@ -905,28 +9538,28 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="21"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="20"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="G25" s="20"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="F27" s="4">
@@ -1369,4 +10002,667 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78E409-1EFF-48C4-97E2-08E5DF5CB30C}">
+  <dimension ref="C2:E85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="19"/>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="19"/>
+      <c r="D5" s="1">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="20"/>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="22"/>
+      <c r="D8" s="1">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="22"/>
+      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="23"/>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="22"/>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="22"/>
+      <c r="D13" s="1">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="23"/>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20.628</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="19"/>
+      <c r="D23" s="1">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3">
+        <v>33.204000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="19"/>
+      <c r="D24" s="1">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3">
+        <v>55.704999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="20"/>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
+      <c r="E26" s="17">
+        <v>22.441000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="22"/>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="17">
+        <v>39.045000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="22"/>
+      <c r="D28" s="1">
+        <v>35</v>
+      </c>
+      <c r="E28" s="17">
+        <v>69.100999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="23"/>
+      <c r="D29" s="1">
+        <v>50</v>
+      </c>
+      <c r="E29" s="17">
+        <v>112.65300000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="22"/>
+      <c r="D31" s="1">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>47.136000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="22"/>
+      <c r="D32" s="1">
+        <v>35</v>
+      </c>
+      <c r="E32" s="3">
+        <v>115.69499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="23"/>
+      <c r="D33" s="1">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3">
+        <v>208.22300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3">
+        <v>60.168755054473799</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="19"/>
+      <c r="D40" s="1">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3">
+        <v>60.070279836654599</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" s="19"/>
+      <c r="D41" s="1">
+        <v>35</v>
+      </c>
+      <c r="E41" s="3">
+        <v>60.096875667572</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="20"/>
+      <c r="D42" s="1">
+        <v>50</v>
+      </c>
+      <c r="E42" s="3">
+        <v>60.098376035690301</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.39999389648437E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="22"/>
+      <c r="D44" s="1">
+        <v>25</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2.3001670837402299E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="22"/>
+      <c r="D45" s="1">
+        <v>35</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3.7002086639404297E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="23"/>
+      <c r="D46" s="1">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6.60068988800048E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>15</v>
+      </c>
+      <c r="E47" s="3">
+        <v>40.053912878036499</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="22"/>
+      <c r="D48" s="1">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3">
+        <v>52.320352792739797</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" s="22"/>
+      <c r="D49" s="1">
+        <v>35</v>
+      </c>
+      <c r="E49" s="3">
+        <v>24.776822090148901</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="23"/>
+      <c r="D50" s="1">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3">
+        <v>33.256520271301198</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" s="19"/>
+      <c r="D57" s="1">
+        <v>25</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" s="19"/>
+      <c r="D58" s="1">
+        <v>35</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="20"/>
+      <c r="D59" s="1">
+        <v>50</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>15</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61" s="22"/>
+      <c r="D61" s="1">
+        <v>25</v>
+      </c>
+      <c r="E61" s="16">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62" s="22"/>
+      <c r="D62" s="1">
+        <v>35</v>
+      </c>
+      <c r="E62" s="16">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" s="23"/>
+      <c r="D63" s="1">
+        <v>50</v>
+      </c>
+      <c r="E63" s="16">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1">
+        <v>15</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="22"/>
+      <c r="D65" s="1">
+        <v>25</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="22"/>
+      <c r="D66" s="1">
+        <v>35</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="23"/>
+      <c r="D67" s="1">
+        <v>50</v>
+      </c>
+      <c r="E67" s="6">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C74" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1046.3333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="19"/>
+      <c r="D75" s="1">
+        <v>25</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1171.5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="19"/>
+      <c r="D76" s="1">
+        <v>35</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1694.8333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="20"/>
+      <c r="D77" s="1">
+        <v>50</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1829.2222222222222</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>15</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1328.3333333333333</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="22"/>
+      <c r="D79" s="1">
+        <v>25</v>
+      </c>
+      <c r="E79" s="16">
+        <v>1398.25</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="22"/>
+      <c r="D80" s="1">
+        <v>35</v>
+      </c>
+      <c r="E80" s="16">
+        <v>1962.5</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="23"/>
+      <c r="D81" s="1">
+        <v>50</v>
+      </c>
+      <c r="E81" s="16">
+        <v>1812.3333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1">
+        <v>15</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1284.3333333333333</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="22"/>
+      <c r="D83" s="1">
+        <v>25</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1627.75</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="22"/>
+      <c r="D84" s="1">
+        <v>35</v>
+      </c>
+      <c r="E84" s="6">
+        <v>3138.5</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="23"/>
+      <c r="D85" s="1">
+        <v>50</v>
+      </c>
+      <c r="E85" s="6">
+        <v>3132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>